--- a/test_xlsx/W武器皮肤表.xlsx
+++ b/test_xlsx/W武器皮肤表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420"/>
+    <workbookView windowHeight="17220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="104">
   <si>
     <t>MOD</t>
   </si>
@@ -29,6 +29,12 @@
     <t>FRONT_TYPE</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>uint32</t>
+  </si>
+  <si>
     <t>DES</t>
   </si>
   <si>
@@ -44,235 +50,244 @@
     <t>是否使用透明通道</t>
   </si>
   <si>
+    <t>皮肤武器材质</t>
+  </si>
+  <si>
+    <t>皮肤风格类型</t>
+  </si>
+  <si>
+    <t>皮肤贴图1</t>
+  </si>
+  <si>
+    <t>皮肤贴图2</t>
+  </si>
+  <si>
+    <t>是否调用原模型贴图</t>
+  </si>
+  <si>
+    <t>不调用原模型时底色</t>
+  </si>
+  <si>
+    <t>磨损最小值</t>
+  </si>
+  <si>
+    <t>磨损最大值</t>
+  </si>
+  <si>
+    <t>忽略武器尺寸平铺</t>
+  </si>
+  <si>
+    <t>皮肤x方向偏移起始值</t>
+  </si>
+  <si>
+    <t>皮肤x方向偏移终止值</t>
+  </si>
+  <si>
+    <t>皮肤y方向偏移起始值</t>
+  </si>
+  <si>
+    <t>皮肤y方向偏移终止值</t>
+  </si>
+  <si>
+    <t>皮肤旋转起始值</t>
+  </si>
+  <si>
+    <t>皮肤旋转终止值</t>
+  </si>
+  <si>
+    <t>珍珠色混合百分比</t>
+  </si>
+  <si>
+    <t>NAMES</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>resource_name</t>
+  </si>
+  <si>
+    <t>alpha_blend</t>
+  </si>
+  <si>
+    <t>material_name</t>
+  </si>
+  <si>
+    <t>skin_type</t>
+  </si>
+  <si>
+    <t>texture1</t>
+  </si>
+  <si>
+    <t>texture2</t>
+  </si>
+  <si>
+    <t>default_texture</t>
+  </si>
+  <si>
+    <t>default_colors</t>
+  </si>
+  <si>
+    <t>wear_remap_min</t>
+  </si>
+  <si>
+    <t>wear_remap_max</t>
+  </si>
+  <si>
+    <t>ignore_weapon_size_scale</t>
+  </si>
+  <si>
+    <t>texture_offset_x_start</t>
+  </si>
+  <si>
+    <t>texture_offset_x_end</t>
+  </si>
+  <si>
+    <t>texture_offset_y_start</t>
+  </si>
+  <si>
+    <t>texture_offset_y_end</t>
+  </si>
+  <si>
+    <t>texture_rotate_start</t>
+  </si>
+  <si>
+    <t>texture_rotate_end</t>
+  </si>
+  <si>
+    <t>pearl_percent</t>
+  </si>
+  <si>
+    <t>ENUM</t>
+  </si>
+  <si>
+    <t>否|是</t>
+  </si>
+  <si>
+    <t>默认|手绘|光泽|枪匠</t>
+  </si>
+  <si>
+    <t>REF</t>
+  </si>
+  <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>Pistol250</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>默认</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>USP</t>
+  </si>
+  <si>
+    <t>SawedOff</t>
+  </si>
+  <si>
+    <t>CZAuto</t>
+  </si>
+  <si>
+    <t>Eagle</t>
+  </si>
+  <si>
+    <t>Nova</t>
+  </si>
+  <si>
+    <t>Origin12</t>
+  </si>
+  <si>
+    <t>Vector</t>
+  </si>
+  <si>
+    <t>MP5</t>
+  </si>
+  <si>
+    <t>P90</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>AKM</t>
+  </si>
+  <si>
+    <t>QBZ</t>
+  </si>
+  <si>
+    <t>ScarL</t>
+  </si>
+  <si>
+    <t>AUG</t>
+  </si>
+  <si>
+    <t>Negev</t>
+  </si>
+  <si>
+    <t>M249</t>
+  </si>
+  <si>
+    <t>MK14</t>
+  </si>
+  <si>
+    <t>AWM</t>
+  </si>
+  <si>
+    <t>KnifeBasic</t>
+  </si>
+  <si>
+    <t>KnifeButterfly</t>
+  </si>
+  <si>
+    <t>KnifeM9bayonet</t>
+  </si>
+  <si>
+    <t>KnifeKarambit</t>
+  </si>
+  <si>
+    <t>KnifeSkeleton</t>
+  </si>
+  <si>
+    <t>KnifeGurkha</t>
+  </si>
+  <si>
+    <t>KnifeUrsus</t>
+  </si>
+  <si>
+    <t>KnifeFalchion</t>
+  </si>
+  <si>
+    <t>FragGrenade</t>
+  </si>
+  <si>
+    <t>SmokeGrenade</t>
+  </si>
+  <si>
+    <t>FlashBang</t>
+  </si>
+  <si>
+    <t>IncendiaryGrenade</t>
+  </si>
+  <si>
+    <t>Bomb</t>
+  </si>
+  <si>
+    <t>BombDevice</t>
+  </si>
+  <si>
     <t>是否武器皮肤</t>
   </si>
   <si>
-    <t>皮肤武器材质</t>
-  </si>
-  <si>
-    <t>皮肤风格类型</t>
-  </si>
-  <si>
-    <t>皮肤贴图1</t>
-  </si>
-  <si>
-    <t>皮肤贴图2</t>
-  </si>
-  <si>
-    <t>是否调用原模型贴图</t>
-  </si>
-  <si>
-    <t>不调用原模型时底色</t>
-  </si>
-  <si>
-    <t>磨损最小值</t>
-  </si>
-  <si>
-    <t>磨损最大值</t>
-  </si>
-  <si>
-    <t>忽略武器尺寸平铺</t>
-  </si>
-  <si>
-    <t>皮肤x方向偏移起始值</t>
-  </si>
-  <si>
-    <t>皮肤x方向偏移终止值</t>
-  </si>
-  <si>
-    <t>皮肤y方向偏移起始值</t>
-  </si>
-  <si>
-    <t>皮肤y方向偏移终止值</t>
-  </si>
-  <si>
-    <t>皮肤旋转起始值</t>
-  </si>
-  <si>
-    <t>皮肤旋转终止值</t>
-  </si>
-  <si>
-    <t>珍珠色混合百分比</t>
-  </si>
-  <si>
-    <t>NAMES</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>resource_name</t>
-  </si>
-  <si>
-    <t>alpha_blend</t>
-  </si>
-  <si>
     <t>is_default</t>
   </si>
   <si>
-    <t>material_name</t>
-  </si>
-  <si>
-    <t>skin_type</t>
-  </si>
-  <si>
-    <t>texture1</t>
-  </si>
-  <si>
-    <t>texture2</t>
-  </si>
-  <si>
-    <t>default_texture</t>
-  </si>
-  <si>
-    <t>default_colors</t>
-  </si>
-  <si>
-    <t>wear_remap_min</t>
-  </si>
-  <si>
-    <t>wear_remap_max</t>
-  </si>
-  <si>
-    <t>ignore_weapon_size_scale</t>
-  </si>
-  <si>
-    <t>texture_offset_x_start</t>
-  </si>
-  <si>
-    <t>texture_offset_x_end</t>
-  </si>
-  <si>
-    <t>texture_offset_y_start</t>
-  </si>
-  <si>
-    <t>texture_offset_y_end</t>
-  </si>
-  <si>
-    <t>texture_rotate_start</t>
-  </si>
-  <si>
-    <t>texture_rotate_end</t>
-  </si>
-  <si>
-    <t>pearl_percent</t>
-  </si>
-  <si>
-    <t>ENUM</t>
-  </si>
-  <si>
-    <t>否|是</t>
-  </si>
-  <si>
     <t>手绘|光泽|枪匠</t>
-  </si>
-  <si>
-    <t>REF</t>
-  </si>
-  <si>
-    <t>VALUE</t>
-  </si>
-  <si>
-    <t>Pistol250</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>USP</t>
-  </si>
-  <si>
-    <t>SawedOff</t>
-  </si>
-  <si>
-    <t>CZAuto</t>
-  </si>
-  <si>
-    <t>Eagle</t>
-  </si>
-  <si>
-    <t>Nova</t>
-  </si>
-  <si>
-    <t>Origin12</t>
-  </si>
-  <si>
-    <t>Vector</t>
-  </si>
-  <si>
-    <t>MP5</t>
-  </si>
-  <si>
-    <t>P90</t>
-  </si>
-  <si>
-    <t>M4</t>
-  </si>
-  <si>
-    <t>AKM</t>
-  </si>
-  <si>
-    <t>QBZ</t>
-  </si>
-  <si>
-    <t>ScarL</t>
-  </si>
-  <si>
-    <t>AUG</t>
-  </si>
-  <si>
-    <t>Negev</t>
-  </si>
-  <si>
-    <t>M249</t>
-  </si>
-  <si>
-    <t>MK14</t>
-  </si>
-  <si>
-    <t>AWM</t>
-  </si>
-  <si>
-    <t>KnifeBasic</t>
-  </si>
-  <si>
-    <t>KnifeButterfly</t>
-  </si>
-  <si>
-    <t>KnifeM9bayonet</t>
-  </si>
-  <si>
-    <t>KnifeKarambit</t>
-  </si>
-  <si>
-    <t>KnifeSkeleton</t>
-  </si>
-  <si>
-    <t>KnifeGurkha</t>
-  </si>
-  <si>
-    <t>KnifeUrsus</t>
-  </si>
-  <si>
-    <t>KnifeFalchion</t>
-  </si>
-  <si>
-    <t>FragGrenade</t>
-  </si>
-  <si>
-    <t>SmokeGrenade</t>
-  </si>
-  <si>
-    <t>FlashBang</t>
-  </si>
-  <si>
-    <t>IncendiaryGrenade</t>
-  </si>
-  <si>
-    <t>Bomb</t>
-  </si>
-  <si>
-    <t>BombDevice</t>
   </si>
   <si>
     <t>武器表ID+同一皮肤的不同序号</t>
@@ -321,9 +336,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -353,14 +368,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,81 +420,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,8 +440,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -478,6 +450,14 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -493,10 +473,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -505,6 +493,33 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -522,7 +537,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,7 +555,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,115 +675,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,25 +693,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,13 +711,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,41 +794,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -838,6 +818,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -853,6 +842,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -861,6 +865,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -869,10 +884,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -881,139 +896,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1413,14 +1428,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AD40"/>
+  <dimension ref="A1:AC40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1430,24 +1445,23 @@
     <col min="3" max="3" width="8.75" style="3" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="17.125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14" style="3" customWidth="1"/>
-    <col min="9" max="10" width="10" style="3" customWidth="1"/>
-    <col min="11" max="12" width="19.125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="17.5" style="3" customWidth="1"/>
-    <col min="14" max="14" width="17.875" style="3" customWidth="1"/>
-    <col min="15" max="16" width="26.875" style="3" customWidth="1"/>
-    <col min="17" max="17" width="21.625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="22.375" style="3" customWidth="1"/>
-    <col min="19" max="19" width="21.625" style="3" customWidth="1"/>
-    <col min="20" max="20" width="20.75" style="3" customWidth="1"/>
-    <col min="21" max="21" width="20" style="3" customWidth="1"/>
-    <col min="22" max="22" width="17.125" style="3" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="3"/>
+    <col min="6" max="6" width="15.125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14" style="3" customWidth="1"/>
+    <col min="8" max="9" width="10" style="3" customWidth="1"/>
+    <col min="10" max="11" width="19.125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="17.5" style="3" customWidth="1"/>
+    <col min="13" max="13" width="17.875" style="3" customWidth="1"/>
+    <col min="14" max="15" width="26.875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="21.625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="22.375" style="3" customWidth="1"/>
+    <col min="18" max="18" width="21.625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="20.75" style="3" customWidth="1"/>
+    <col min="20" max="20" width="20" style="3" customWidth="1"/>
+    <col min="21" max="21" width="17.125" style="3" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:30">
+    <row r="1" s="1" customFormat="1" spans="1:29">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1481,9 +1495,8 @@
       <c r="AA1" s="4"/>
       <c r="AB1" s="4"/>
       <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:30">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:29">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1515,25 +1528,46 @@
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:30">
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:29">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -1549,75 +1583,72 @@
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
       <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:30">
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:29">
       <c r="A4" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="V4" s="6"/>
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
       <c r="Y4" s="6"/>
@@ -1625,73 +1656,70 @@
       <c r="AA4" s="6"/>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:30">
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:29">
       <c r="A5" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" s="5" t="s">
         <v>39</v>
       </c>
+      <c r="O5" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="P5" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S5" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="V5" s="6" t="s">
         <v>46</v>
       </c>
+      <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
@@ -1699,9 +1727,8 @@
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:30">
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:29">
       <c r="A6" s="5" t="s">
         <v>47</v>
       </c>
@@ -1711,24 +1738,22 @@
       <c r="E6" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5" t="s">
+      <c r="N6" s="5" t="s">
         <v>48</v>
       </c>
+      <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
@@ -1743,9 +1768,8 @@
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
       <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:30">
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:29">
       <c r="A7" s="7" t="s">
         <v>50</v>
       </c>
@@ -1777,9 +1801,8 @@
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-    </row>
-    <row r="8" spans="1:22">
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="8" t="s">
         <v>51</v>
       </c>
@@ -1796,27 +1819,30 @@
       <c r="E8" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
+      <c r="J8" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
+      <c r="N8" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
+      <c r="S8" s="13"/>
       <c r="T8" s="13"/>
       <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-    </row>
-    <row r="9" spans="1:22">
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="8" t="s">
         <v>51</v>
       </c>
@@ -1828,32 +1854,35 @@
         <v>唯一</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
+      <c r="J9" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
+      <c r="N9" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
+      <c r="S9" s="13"/>
       <c r="T9" s="13"/>
       <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-    </row>
-    <row r="10" spans="1:22">
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="8" t="s">
         <v>51</v>
       </c>
@@ -1865,32 +1894,35 @@
         <v>唯一</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
+      <c r="J10" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
+      <c r="N10" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
+      <c r="S10" s="13"/>
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-    </row>
-    <row r="11" spans="1:22">
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="8" t="s">
         <v>51</v>
       </c>
@@ -1902,32 +1934,35 @@
         <v>唯一</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
+      <c r="J11" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
+      <c r="N11" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
+      <c r="S11" s="13"/>
       <c r="T11" s="13"/>
       <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-    </row>
-    <row r="12" spans="1:22">
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="8" t="s">
         <v>51</v>
       </c>
@@ -1939,32 +1974,35 @@
         <v>唯一</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
+      <c r="J12" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
+      <c r="N12" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
+      <c r="S12" s="13"/>
       <c r="T12" s="13"/>
       <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-    </row>
-    <row r="13" spans="1:22">
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="8" t="s">
         <v>51</v>
       </c>
@@ -1976,32 +2014,35 @@
         <v>唯一</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
+      <c r="J13" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
+      <c r="N13" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
+      <c r="S13" s="13"/>
       <c r="T13" s="13"/>
       <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-    </row>
-    <row r="14" spans="1:22">
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="8" t="s">
         <v>51</v>
       </c>
@@ -2013,32 +2054,35 @@
         <v>唯一</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
+      <c r="J14" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
+      <c r="N14" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
+      <c r="S14" s="13"/>
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-    </row>
-    <row r="15" spans="1:22">
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="8" t="s">
         <v>51</v>
       </c>
@@ -2050,32 +2094,35 @@
         <v>唯一</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
+      <c r="J15" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
+      <c r="N15" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
+      <c r="S15" s="13"/>
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-    </row>
-    <row r="16" spans="1:22">
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="8" t="s">
         <v>51</v>
       </c>
@@ -2087,32 +2134,35 @@
         <v>唯一</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
+      <c r="J16" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
+      <c r="N16" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
+      <c r="S16" s="13"/>
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-    </row>
-    <row r="17" spans="1:22">
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="8" t="s">
         <v>51</v>
       </c>
@@ -2124,32 +2174,35 @@
         <v>唯一</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
+      <c r="J17" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
+      <c r="N17" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
+      <c r="S17" s="13"/>
       <c r="T17" s="13"/>
       <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-    </row>
-    <row r="18" s="14" customFormat="1" spans="1:22">
+    </row>
+    <row r="18" s="14" customFormat="1" spans="1:21">
       <c r="A18" s="8" t="s">
         <v>51</v>
       </c>
@@ -2161,32 +2214,35 @@
         <v>唯一</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
+      <c r="J18" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
+      <c r="N18" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
+      <c r="S18" s="13"/>
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-    </row>
-    <row r="19" s="14" customFormat="1" spans="1:22">
+    </row>
+    <row r="19" s="14" customFormat="1" spans="1:21">
       <c r="A19" s="8" t="s">
         <v>51</v>
       </c>
@@ -2198,32 +2254,35 @@
         <v>唯一</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
+      <c r="J19" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
+      <c r="N19" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
+      <c r="S19" s="13"/>
       <c r="T19" s="13"/>
       <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-    </row>
-    <row r="20" s="14" customFormat="1" spans="1:22">
+    </row>
+    <row r="20" s="14" customFormat="1" spans="1:21">
       <c r="A20" s="8" t="s">
         <v>51</v>
       </c>
@@ -2235,32 +2294,35 @@
         <v>唯一</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
+      <c r="J20" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
+      <c r="N20" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
+      <c r="S20" s="13"/>
       <c r="T20" s="13"/>
       <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-    </row>
-    <row r="21" spans="1:22">
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" s="8" t="s">
         <v>51</v>
       </c>
@@ -2272,32 +2334,35 @@
         <v>唯一</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
+      <c r="J21" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
+      <c r="N21" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
+      <c r="S21" s="13"/>
       <c r="T21" s="13"/>
       <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-    </row>
-    <row r="22" spans="1:22">
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="8" t="s">
         <v>51</v>
       </c>
@@ -2309,32 +2374,35 @@
         <v>唯一</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
+      <c r="J22" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
+      <c r="N22" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
+      <c r="S22" s="13"/>
       <c r="T22" s="13"/>
       <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-    </row>
-    <row r="23" spans="1:22">
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" s="8" t="s">
         <v>51</v>
       </c>
@@ -2346,32 +2414,35 @@
         <v>唯一</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
+      <c r="J23" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
+      <c r="N23" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
       <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
+      <c r="S23" s="13"/>
       <c r="T23" s="13"/>
       <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
-    </row>
-    <row r="24" spans="1:22">
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" s="8" t="s">
         <v>51</v>
       </c>
@@ -2383,32 +2454,35 @@
         <v>唯一</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
+      <c r="J24" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
+      <c r="N24" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
+      <c r="S24" s="13"/>
       <c r="T24" s="13"/>
       <c r="U24" s="13"/>
-      <c r="V24" s="13"/>
-    </row>
-    <row r="25" spans="1:22">
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" s="8" t="s">
         <v>51</v>
       </c>
@@ -2420,32 +2494,35 @@
         <v>唯一</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
+      <c r="J25" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
+      <c r="N25" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
       <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
+      <c r="S25" s="13"/>
       <c r="T25" s="13"/>
       <c r="U25" s="13"/>
-      <c r="V25" s="13"/>
-    </row>
-    <row r="26" spans="1:22">
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" s="8" t="s">
         <v>51</v>
       </c>
@@ -2457,32 +2534,35 @@
         <v>唯一</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
+      <c r="J26" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
+      <c r="N26" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
       <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
+      <c r="S26" s="13"/>
       <c r="T26" s="13"/>
       <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
-    </row>
-    <row r="27" spans="1:22">
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" s="8" t="s">
         <v>51</v>
       </c>
@@ -2494,32 +2574,35 @@
         <v>唯一</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F27" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
+      <c r="J27" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
+      <c r="N27" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
       <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
+      <c r="S27" s="13"/>
       <c r="T27" s="13"/>
       <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
-    </row>
-    <row r="28" spans="1:22">
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" s="8" t="s">
         <v>51</v>
       </c>
@@ -2531,32 +2614,35 @@
         <v>唯一</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
+      <c r="J28" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
+      <c r="N28" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
       <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
+      <c r="S28" s="13"/>
       <c r="T28" s="13"/>
       <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-    </row>
-    <row r="29" spans="1:22">
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" s="8" t="s">
         <v>51</v>
       </c>
@@ -2568,32 +2654,35 @@
         <v>唯一</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F29" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
+      <c r="J29" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
+      <c r="N29" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
       <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
+      <c r="S29" s="13"/>
       <c r="T29" s="13"/>
       <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-    </row>
-    <row r="30" spans="1:22">
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" s="8" t="s">
         <v>51</v>
       </c>
@@ -2605,32 +2694,35 @@
         <v>唯一</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F30" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
+      <c r="J30" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
+      <c r="N30" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
       <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
+      <c r="S30" s="13"/>
       <c r="T30" s="13"/>
       <c r="U30" s="13"/>
-      <c r="V30" s="13"/>
-    </row>
-    <row r="31" spans="1:22">
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" s="8" t="s">
         <v>51</v>
       </c>
@@ -2642,32 +2734,35 @@
         <v>唯一</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F31" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
+      <c r="J31" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
+      <c r="N31" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
       <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
+      <c r="S31" s="13"/>
       <c r="T31" s="13"/>
       <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
-    </row>
-    <row r="32" spans="1:22">
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" s="8" t="s">
         <v>51</v>
       </c>
@@ -2679,32 +2774,35 @@
         <v>唯一</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F32" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
+      <c r="J32" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
       <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
+      <c r="N32" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
       <c r="R32" s="11"/>
-      <c r="S32" s="11"/>
+      <c r="S32" s="13"/>
       <c r="T32" s="13"/>
       <c r="U32" s="13"/>
-      <c r="V32" s="13"/>
-    </row>
-    <row r="33" spans="1:22">
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" s="8" t="s">
         <v>51</v>
       </c>
@@ -2716,32 +2814,35 @@
         <v>唯一</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
+      <c r="J33" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
+      <c r="N33" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
       <c r="Q33" s="11"/>
       <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
+      <c r="S33" s="13"/>
       <c r="T33" s="13"/>
       <c r="U33" s="13"/>
-      <c r="V33" s="13"/>
-    </row>
-    <row r="34" spans="1:22">
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" s="8" t="s">
         <v>51</v>
       </c>
@@ -2753,32 +2854,35 @@
         <v>唯一</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F34" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
+      <c r="J34" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
       <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
+      <c r="N34" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="O34" s="11"/>
       <c r="P34" s="11"/>
       <c r="Q34" s="11"/>
       <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
+      <c r="S34" s="13"/>
       <c r="T34" s="13"/>
       <c r="U34" s="13"/>
-      <c r="V34" s="13"/>
-    </row>
-    <row r="35" spans="1:22">
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" s="8" t="s">
         <v>51</v>
       </c>
@@ -2790,32 +2894,35 @@
         <v>唯一</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F35" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
+      <c r="J35" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
       <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
+      <c r="N35" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="O35" s="11"/>
       <c r="P35" s="11"/>
       <c r="Q35" s="11"/>
       <c r="R35" s="11"/>
-      <c r="S35" s="11"/>
+      <c r="S35" s="13"/>
       <c r="T35" s="13"/>
       <c r="U35" s="13"/>
-      <c r="V35" s="13"/>
-    </row>
-    <row r="36" spans="1:22">
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" s="8" t="s">
         <v>51</v>
       </c>
@@ -2827,32 +2934,35 @@
         <v>唯一</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F36" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
+      <c r="J36" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
+      <c r="N36" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="O36" s="11"/>
       <c r="P36" s="11"/>
       <c r="Q36" s="11"/>
       <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
+      <c r="S36" s="13"/>
       <c r="T36" s="13"/>
       <c r="U36" s="13"/>
-      <c r="V36" s="13"/>
-    </row>
-    <row r="37" spans="1:22">
+    </row>
+    <row r="37" spans="1:21">
       <c r="A37" s="8" t="s">
         <v>51</v>
       </c>
@@ -2864,32 +2974,35 @@
         <v>唯一</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F37" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
+      <c r="J37" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
+      <c r="N37" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
       <c r="R37" s="11"/>
-      <c r="S37" s="11"/>
+      <c r="S37" s="13"/>
       <c r="T37" s="13"/>
       <c r="U37" s="13"/>
-      <c r="V37" s="13"/>
-    </row>
-    <row r="38" spans="1:22">
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38" s="8" t="s">
         <v>51</v>
       </c>
@@ -2901,32 +3014,35 @@
         <v>唯一</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F38" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
+      <c r="J38" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
+      <c r="N38" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="O38" s="11"/>
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
       <c r="R38" s="11"/>
-      <c r="S38" s="11"/>
+      <c r="S38" s="13"/>
       <c r="T38" s="13"/>
       <c r="U38" s="13"/>
-      <c r="V38" s="13"/>
-    </row>
-    <row r="39" spans="1:22">
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39" s="8" t="s">
         <v>51</v>
       </c>
@@ -2938,32 +3054,35 @@
         <v>唯一</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F39" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
+      <c r="J39" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="K39" s="11"/>
       <c r="L39" s="11"/>
       <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
+      <c r="N39" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="O39" s="11"/>
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
       <c r="R39" s="11"/>
-      <c r="S39" s="11"/>
+      <c r="S39" s="13"/>
       <c r="T39" s="13"/>
       <c r="U39" s="13"/>
-      <c r="V39" s="13"/>
-    </row>
-    <row r="40" spans="1:22">
+    </row>
+    <row r="40" spans="1:21">
       <c r="A40" s="8" t="s">
         <v>51</v>
       </c>
@@ -2975,30 +3094,33 @@
         <v>唯一</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F40" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
+      <c r="J40" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="K40" s="11"/>
       <c r="L40" s="11"/>
       <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
+      <c r="N40" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="O40" s="11"/>
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
       <c r="R40" s="11"/>
-      <c r="S40" s="11"/>
+      <c r="S40" s="13"/>
       <c r="T40" s="13"/>
       <c r="U40" s="13"/>
-      <c r="V40" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3145,70 +3267,70 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:30">
       <c r="A4" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
@@ -3221,20 +3343,20 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:30">
       <c r="A5" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>31</v>
@@ -3308,7 +3430,7 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -3408,61 +3530,61 @@
     </row>
     <row r="9" ht="99" spans="2:22">
       <c r="B9" s="12" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
